--- a/biology/Médecine/1912_en_santé_et_médecine/1912_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1912_en_santé_et_médecine/1912_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1912_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1912_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1912 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1912_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1912_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">23 janvier : « Convention internationale de l'opium » conclue à La Haye[1].
-28 juin : en France, arrêté reconnaissant l'impropriété de diverses substances au contact alimentaire[2].
-Juillet : le premier congrès international d'eugénique se tient à Londres[3].
-28 décembre : fondation de la Société anthroposophique à Cologne par Marie von Sivers, Michael Bauer (de) et Carl Unger (de)[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 janvier : « Convention internationale de l'opium » conclue à La Haye.
+28 juin : en France, arrêté reconnaissant l'impropriété de diverses substances au contact alimentaire.
+Juillet : le premier congrès international d'eugénique se tient à Londres.
+28 décembre : fondation de la Société anthroposophique à Cologne par Marie von Sivers, Michael Bauer (de) et Carl Unger (de),.
 Otto von Franqué (de) guérit un cancer des ovaires par la radiothérapie.
-Fondation de l'Union médicale franco-ibéro-américaine, devenue Union médicale latine en 1928, et de son organe, La Revue de l'Union médicale franco-ibéro-américaine[6].
+Fondation de l'Union médicale franco-ibéro-américaine, devenue Union médicale latine en 1928, et de son organe, La Revue de l'Union médicale franco-ibéro-américaine.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1912_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1912_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le pathologiste et microbiologiste roumain Victor Babès publie son Traité de la rage[7].
-C. Giachetti, « Maupassant e la sua malattia »[8],[9].
-Robert Holier, La Peur et les états qui s'y rattachent dans l’œuvre de Maupassant[10],[9].
-Emilio Padovani, Guy de Maupassant e il suicidio : Contributo alla psicopatologia del suicidio nella paralisi progressiva[11],[9].
-Louis Thomas, deuxième édition de La Maladie et la Mort de Maupassant[12],[9].
-Première description de la thyroïdite de Hashimoto par le médecin japonais Hakaru Hashimoto dans son article Zur Kenntnis der lymphomatösen Veränderung der Schilddrüse (Struma lymphomatosa)[13].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le pathologiste et microbiologiste roumain Victor Babès publie son Traité de la rage.
+C. Giachetti, « Maupassant e la sua malattia »,.
+Robert Holier, La Peur et les états qui s'y rattachent dans l’œuvre de Maupassant,.
+Emilio Padovani, Guy de Maupassant e il suicidio : Contributo alla psicopatologia del suicidio nella paralisi progressiva,.
+Louis Thomas, deuxième édition de La Maladie et la Mort de Maupassant,.
+Première description de la thyroïdite de Hashimoto par le médecin japonais Hakaru Hashimoto dans son article Zur Kenntnis der lymphomatösen Veränderung der Schilddrüse (Struma lymphomatosa).</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1912_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1912_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix Nobel de médecine : Alexis Carrel, « en reconnaissance de ses travaux sur la suture vasculaire et la transplantation des vaisseaux sanguins et des organes[14] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Nobel de médecine : Alexis Carrel, « en reconnaissance de ses travaux sur la suture vasculaire et la transplantation des vaisseaux sanguins et des organes ».
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1912_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1912_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,13 +631,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 juin : Georges Daumezon (mort en 1979), psychiatre français, théoricien de la psychothérapie institutionnelle.
 15 juin : Paul Milliez (mort en 1994), médecin et résistant français, spécialiste de l'hypertension artérielle.
-1er juillet : Jacques Cordier (mort en 1990), ophtalmologiste français[15].
-29 août : Lucien Léger (mort en 1999), chirurgien, spécialiste de la pathologie pancréatique et de l’hypertension portale[16].
-8 septembre : Maurice Porot (mort en 1997), médecin français[17],[18].
+1er juillet : Jacques Cordier (mort en 1990), ophtalmologiste français.
+29 août : Lucien Léger (mort en 1999), chirurgien, spécialiste de la pathologie pancréatique et de l’hypertension portale.
+8 septembre : Maurice Porot (mort en 1997), médecin français,.
 15 octobre : Lucien Bonnafé (mort en 2003), psychiatre désaliéniste français, inspirateur de la politique de secteur en psychiatrie.
 19 novembre : George Emil Palade (mort en 2008), prix Nobel de médecine en 1974.
 Date inconnue
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1912_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1912_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,21 +671,23 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>17 janvier : Joaquin Albarran (né en 1860), médecin et chirurgien français d'origine cubaine, pionnier de la chirurgie urologique.
 10 février : Joseph Lister (né en 1827), chirurgien britannique, pionnier de l'antisepsie dans la chirurgie opératoire.
-1er avril : Paul Brousse (né en 1844), médecin et homme politique français, anarchiste, socialiste, membre de la Commune[19].
-30 avril : Ernest Duchesne (né en 1874), médecin français, officier du corps de santé des armées, précurseur de l'antibiothérapie[20].
+1er avril : Paul Brousse (né en 1844), médecin et homme politique français, anarchiste, socialiste, membre de la Commune.
+30 avril : Ernest Duchesne (né en 1874), médecin français, officier du corps de santé des armées, précurseur de l'antibiothérapie.
 11 juillet : Ferdinand Monoyer (né en 1836), physicien et ophtalmologue français, inventeur de l'échelle Monoyer.
 31 août : Paul Robin (né en 1837), pédagogue français, libertaire, eugéniste et néomalthusien, partisan de la contraception.
-18 octobre : Jules de Seynes (né en 1833), médecin, botaniste et mycologue français[21].
+18 octobre : Jules de Seynes (né en 1833), médecin, botaniste et mycologue français.
 23 octobre : Élie de Cyon (né en 1843), médecin, physiologiste, journaliste et essayiste russe.
 27 octobre : Paul Segond (né en 1851), pionnier de la chirurgie obstétricale et de l’enseignement de la gynécologie.
 20 décembre : Paul Topinard (né en 1830), médecin et anthropologue français.
 Date inconnue
-Marie Feuillet (née en 1864), infirmière française[22].
-Paul Triaire (né en 1842), historien français de la médecine[23].</t>
+Marie Feuillet (née en 1864), infirmière française.
+Paul Triaire (né en 1842), historien français de la médecine.</t>
         </is>
       </c>
     </row>
